--- a/excel/busplan_alt.xlsx
+++ b/excel/busplan_alt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946881D-A0B0-4EFE-9249-D16403BDFE04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="922" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="922" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="60 (+64) 1" sheetId="2" r:id="rId1"/>
@@ -364,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -971,12 +970,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1"/>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="_Meta Data Content" xfId="48" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_Meta Data Copyright" xfId="52" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_Meta Data Heading" xfId="47" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_Revision Table Header" xfId="49" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_Revision Table Last Row" xfId="51" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_Revision Table Row" xfId="50" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_Meta Data Content" xfId="48"/>
+    <cellStyle name="_Meta Data Copyright" xfId="52"/>
+    <cellStyle name="_Meta Data Heading" xfId="47"/>
+    <cellStyle name="_Revision Table Header" xfId="49"/>
+    <cellStyle name="_Revision Table Last Row" xfId="51"/>
+    <cellStyle name="_Revision Table Row" xfId="50"/>
     <cellStyle name="20 % - Akzent1" xfId="24" builtinId="30" hidden="1"/>
     <cellStyle name="20 % - Akzent2" xfId="28" builtinId="34" hidden="1"/>
     <cellStyle name="20 % - Akzent3" xfId="32" builtinId="38" hidden="1"/>
@@ -1014,8 +1013,8 @@
     <cellStyle name="Prozent" xfId="5" builtinId="5" hidden="1"/>
     <cellStyle name="Schlecht" xfId="12" builtinId="27" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Standard 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Standard 3" xfId="54" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Standard 2" xfId="53"/>
+    <cellStyle name="Standard 3" xfId="54"/>
     <cellStyle name="Überschrift" xfId="6" builtinId="15" hidden="1"/>
     <cellStyle name="Überschrift 1" xfId="7" builtinId="16" hidden="1"/>
     <cellStyle name="Überschrift 2" xfId="8" builtinId="17" hidden="1"/>
@@ -1078,7 +1077,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="ABB Table" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ABB Table" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ABB Table" pivot="0" count="5">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="totalRow" dxfId="2"/>
@@ -1308,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AB43"/>
   <sheetViews>
@@ -4964,11 +4963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle18"/>
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -6050,7 +6049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle19"/>
   <dimension ref="A1:AL10"/>
   <sheetViews>
@@ -7136,7 +7135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle20"/>
   <dimension ref="A1:AL10"/>
   <sheetViews>
@@ -8222,7 +8221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle21"/>
   <dimension ref="A1:AL10"/>
   <sheetViews>
@@ -9308,7 +9307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle22"/>
   <dimension ref="A1:AN19"/>
   <sheetViews>
@@ -10455,7 +10454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle23"/>
   <dimension ref="A1:AN10"/>
   <sheetViews>
@@ -11595,7 +11594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle24"/>
   <dimension ref="A1:AN10"/>
   <sheetViews>
@@ -12735,7 +12734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle25"/>
   <dimension ref="A1:AL10"/>
   <sheetViews>
@@ -13821,7 +13820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:AP25"/>
   <sheetViews>
@@ -16932,7 +16931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:AN25"/>
   <sheetViews>
@@ -19899,7 +19898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AB43"/>
   <sheetViews>
@@ -23550,7 +23549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:AX7"/>
   <sheetViews>
@@ -24501,7 +24500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:BV9"/>
   <sheetViews>
@@ -26335,7 +26334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle14"/>
   <dimension ref="A1:BV9"/>
   <sheetViews>
@@ -27948,7 +27947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle15"/>
   <dimension ref="A1:BN9"/>
   <sheetViews>
@@ -29590,7 +29589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle16"/>
   <dimension ref="A1:BP8"/>
   <sheetViews>
@@ -31074,7 +31073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle17"/>
   <dimension ref="A1:BD7"/>
   <sheetViews>
@@ -32133,7 +32132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AB43"/>
   <sheetViews>
@@ -35784,12 +35783,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -39308,10 +39307,10 @@
         <v>61</v>
       </c>
       <c r="D32">
-        <v>0.35729166666666601</v>
+        <v>0.35677083333333331</v>
       </c>
       <c r="E32">
-        <v>0.40925925925925899</v>
+        <v>0.41018518518518521</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -39536,12 +39535,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -42359,7 +42358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:BD13"/>
   <sheetViews>
@@ -44438,7 +44437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62012CD4-41C8-4F5B-9888-1EE78827D843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46516,7 +46515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:BF13"/>
   <sheetViews>
@@ -48667,7 +48666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AD8417-1875-4F8F-A94A-9D4720DF4041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
